--- a/Evaluation/eval001/sub0042/Classifcation Report.xlsx
+++ b/Evaluation/eval001/sub0042/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9611650485436893</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C2" t="n">
         <v>0.9801980198019802</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9705882352941178</v>
+        <v>0.9611650485436893</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9797979797979798</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9603960396039604</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9700000000000001</v>
+        <v>0.9595959595959594</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.9603960396039604</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.9603960396039604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.9603960396039604</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.9603960396039604</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9704815141708345</v>
+        <v>0.9611192930780559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.9603960396039604</v>
       </c>
       <c r="D5" t="n">
-        <v>0.970294117647059</v>
+        <v>0.9603805040698243</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9704815141708345</v>
+        <v>0.961119293078056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9702970297029703</v>
+        <v>0.9603960396039604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.970294117647059</v>
+        <v>0.9603805040698243</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
